--- a/project/excel/ga4gh_va_schema.xlsx
+++ b/project/excel/ga4gh_va_schema.xlsx
@@ -1692,7 +1692,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z1"/>
+  <dimension ref="A1:AA1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1713,120 +1713,125 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
+          <t>proposition</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
           <t>confidenceDirection</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>confidenceLevel</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>confidenceScore</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>evidenceDirection</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>evidenceLevel</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>evidenceScore</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>conclusion</t>
         </is>
       </c>
-      <c r="J1" t="inlineStr">
+      <c r="K1" t="inlineStr">
         <is>
           <t>hasEvidence</t>
         </is>
       </c>
-      <c r="K1" t="inlineStr">
+      <c r="L1" t="inlineStr">
         <is>
           <t>hasEvidenceLines</t>
         </is>
       </c>
-      <c r="L1" t="inlineStr">
+      <c r="M1" t="inlineStr">
         <is>
           <t>hasEvidenceOfTypes</t>
         </is>
       </c>
-      <c r="M1" t="inlineStr">
+      <c r="N1" t="inlineStr">
         <is>
           <t>contributions</t>
         </is>
       </c>
-      <c r="N1" t="inlineStr">
+      <c r="O1" t="inlineStr">
         <is>
           <t>dateAuthored</t>
         </is>
       </c>
-      <c r="O1" t="inlineStr">
+      <c r="P1" t="inlineStr">
         <is>
           <t>specifiedBy</t>
         </is>
       </c>
-      <c r="P1" t="inlineStr">
+      <c r="Q1" t="inlineStr">
         <is>
           <t>derivedFrom</t>
         </is>
       </c>
-      <c r="Q1" t="inlineStr">
+      <c r="R1" t="inlineStr">
         <is>
           <t>reportedIn</t>
         </is>
       </c>
-      <c r="R1" t="inlineStr">
+      <c r="S1" t="inlineStr">
         <is>
           <t>id</t>
         </is>
       </c>
-      <c r="S1" t="inlineStr">
+      <c r="T1" t="inlineStr">
         <is>
           <t>identifiers</t>
         </is>
       </c>
-      <c r="T1" t="inlineStr">
+      <c r="U1" t="inlineStr">
         <is>
           <t>label</t>
         </is>
       </c>
-      <c r="U1" t="inlineStr">
+      <c r="V1" t="inlineStr">
         <is>
           <t>urls</t>
         </is>
       </c>
-      <c r="V1" t="inlineStr">
+      <c r="W1" t="inlineStr">
         <is>
           <t>xrefs</t>
         </is>
       </c>
-      <c r="W1" t="inlineStr">
+      <c r="X1" t="inlineStr">
         <is>
           <t>recordMetadata</t>
         </is>
       </c>
-      <c r="X1" t="inlineStr">
+      <c r="Y1" t="inlineStr">
         <is>
           <t>type</t>
         </is>
       </c>
-      <c r="Y1" t="inlineStr">
+      <c r="Z1" t="inlineStr">
         <is>
           <t>description</t>
         </is>
       </c>
-      <c r="Z1" t="inlineStr">
+      <c r="AA1" t="inlineStr">
         <is>
           <t>extensions</t>
         </is>
